--- a/settings/followup_examples.xlsx
+++ b/settings/followup_examples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PSU\lemonlab\language_cz_foreign_recognition\settings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Psu\lemonlab\czforeign_experiment\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD234AC7-E7EB-47DE-91E0-0492E864B063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2316EE65-4588-440C-ADFC-FCA5D0B9E119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19425" yWindow="3960" windowWidth="18090" windowHeight="15855" xr2:uid="{BA95B8C4-8E50-4680-9E2E-72149A587AFC}"/>
+    <workbookView xWindow="9345" yWindow="7800" windowWidth="22980" windowHeight="12990" xr2:uid="{BA95B8C4-8E50-4680-9E2E-72149A587AFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,27 +36,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>stimulus_type</t>
   </si>
   <si>
-    <t>stimuli/recording1.wav</t>
-  </si>
-  <si>
-    <t>stimuli/recording2.wav</t>
-  </si>
-  <si>
     <t>example_trial</t>
   </si>
   <si>
     <t>standardniho</t>
   </si>
   <si>
-    <t>Nestandardniho</t>
-  </si>
-  <si>
     <t>stimulus_example</t>
+  </si>
+  <si>
+    <t>stimuli_followup\48_d_1.wav</t>
+  </si>
+  <si>
+    <t>stimuli_followup\48_d_4.wav</t>
+  </si>
+  <si>
+    <t>stimuli_followup\48_st_1.wav</t>
+  </si>
+  <si>
+    <t>stimuli_followup\48_st_4.wav</t>
+  </si>
+  <si>
+    <t>NEstandardniho</t>
   </si>
 </sst>
 </file>
@@ -93,7 +99,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -432,21 +439,22 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
     <col min="3" max="3" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -456,44 +464,44 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
